--- a/Excel2Json/bin/etc/etc.xlsx
+++ b/Excel2Json/bin/etc/etc.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72562B-EAE5-45EE-8FF2-F320114B02A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A1A17-63FB-4F3E-B612-B732CC3968F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101110_out" sheetId="31" r:id="rId1"/>
     <sheet name="102010_out" sheetId="2" r:id="rId2"/>
+    <sheet name="103010_npc1" sheetId="32" r:id="rId3"/>
+    <sheet name="103010_npc2" sheetId="33" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,8 +106,78 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{81C34D3D-D8D0-4F2D-91C2-4FF21D141D85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFB7427D-9F76-47E8-ACC1-A430C4076EEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +236,50 @@
   </si>
   <si>
     <t>101110_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103010_npc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하신가~맛좋은 아이스크림 좀 먹고 싶지 않으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 그냥은 안 줄겁니다~하하하!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 좀 바빠서 나중에 먹으러 올게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽑기 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~추억의 뽑기게임! 모두 성공하면 상품을 드립니다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉…재밌겠다…하고 싶다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만..일단 할 일이 있으니까 나중에 하러 와야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103010_npc2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -780,4 +896,288 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68D838-5DF4-49E5-B444-6BBED357DC56}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9A021-1CBB-4B48-8E42-0710CD580F8F}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel2Json/bin/etc/etc.xlsx
+++ b/Excel2Json/bin/etc/etc.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A1A17-63FB-4F3E-B612-B732CC3968F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741818C1-836B-4DE3-9319-D08A22727DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101110_out" sheetId="31" r:id="rId1"/>
     <sheet name="102010_out" sheetId="2" r:id="rId2"/>
-    <sheet name="103010_npc1" sheetId="32" r:id="rId3"/>
-    <sheet name="103010_npc2" sheetId="33" r:id="rId4"/>
+    <sheet name="103010_out" sheetId="35" r:id="rId3"/>
+    <sheet name="104010_out" sheetId="34" r:id="rId4"/>
+    <sheet name="103010_npc1" sheetId="32" r:id="rId5"/>
+    <sheet name="103010_npc2" sheetId="33" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,6 +114,76 @@
     <author>User</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A886190F-C2F5-4DDD-B36B-D53508E310DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CAD25C2C-4E47-4A64-B44F-BC07E8939FEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{81C34D3D-D8D0-4F2D-91C2-4FF21D141D85}">
       <text>
         <r>
@@ -141,7 +213,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -177,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +352,26 @@
   </si>
   <si>
     <t>103010_npc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104010_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 다른 곳 가기엔 시간이 늦었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소로 들어가자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103010_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 시장에서 볼 일을 끝내지 못했어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,6 +991,257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE7184-F891-47D7-A17E-6C114619AB9F}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FADE2D-8EC9-45DF-B45F-73DA16807D4F}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68D838-5DF4-49E5-B444-6BBED357DC56}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1040,12 +1383,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9A021-1CBB-4B48-8E42-0710CD580F8F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/etc/etc.xlsx
+++ b/Excel2Json/bin/etc/etc.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741818C1-836B-4DE3-9319-D08A22727DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2722D-69F6-4810-BCA2-7F742C37C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101110_out" sheetId="31" r:id="rId1"/>
     <sheet name="102010_out" sheetId="2" r:id="rId2"/>
     <sheet name="103010_out" sheetId="35" r:id="rId3"/>
     <sheet name="104010_out" sheetId="34" r:id="rId4"/>
-    <sheet name="103010_npc1" sheetId="32" r:id="rId5"/>
-    <sheet name="103010_npc2" sheetId="33" r:id="rId6"/>
+    <sheet name="201020_out" sheetId="36" r:id="rId5"/>
+    <sheet name="103010_npc1" sheetId="32" r:id="rId6"/>
+    <sheet name="103010_npc2" sheetId="33" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -184,6 +185,41 @@
     <author>User</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{18CD02E0-EB23-43FA-A3FA-2BBD2B4A1E7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{81C34D3D-D8D0-4F2D-91C2-4FF21D141D85}">
       <text>
         <r>
@@ -213,7 +249,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -249,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +408,18 @@
   </si>
   <si>
     <t>아직 시장에서 볼 일을 끝내지 못했어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201020_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쪽에는 볼일이 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 지나가다 보인 패스트푸드점으로 가거나 도심으로 가는 게 좋겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE7184-F891-47D7-A17E-6C114619AB9F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1242,6 +1290,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CF6C7D-AAE5-4CCD-9E76-75A5FCD2A6FE}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68D838-5DF4-49E5-B444-6BBED357DC56}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1383,12 +1562,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9A021-1CBB-4B48-8E42-0710CD580F8F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/etc/etc.xlsx
+++ b/Excel2Json/bin/etc/etc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2722D-69F6-4810-BCA2-7F742C37C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D4C348-C331-4CE3-B83D-A0380DC6A666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101110_out" sheetId="31" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="201020_out" sheetId="36" r:id="rId5"/>
     <sheet name="103010_npc1" sheetId="32" r:id="rId6"/>
     <sheet name="103010_npc2" sheetId="33" r:id="rId7"/>
+    <sheet name="203120_1_default" sheetId="38" r:id="rId8"/>
+    <sheet name="203120_2_default" sheetId="39" r:id="rId9"/>
+    <sheet name="TASK_Choice" sheetId="37" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,6 +77,219 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9C3E7128-FB7F-474C-95BC-2FB494C3B198}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{43C2FB54-5EF2-4131-9334-1D66374E071C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -284,8 +500,78 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A41B2C70-021C-4CEE-B1FA-17FD160B73A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F1C3A7A1-C88A-4829-9036-A475CBED66EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +706,97 @@
   </si>
   <si>
     <t>아까 지나가다 보인 패스트푸드점으로 가거나 도심으로 가는 게 좋겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(큰 의미 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 번호 (동시 실행)</t>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increaseVar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우대화1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_1_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_2_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억의 달고나 뽑기~도전해보세요!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행하던 원인도 감탄한! 아이스크림 먹고가세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으잉? 설마 나 말하는 건가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +807,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +829,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -918,6 +1303,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F474F9D8-FF8F-445D-AD5A-3B359854F26A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
@@ -1566,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9A021-1CBB-4B48-8E42-0710CD580F8F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1702,4 +2197,257 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ED8E3D-0A28-457C-A202-C0AEBD6D2BB6}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.08203125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B7011-0BDD-4F9C-84C7-1B2D8A52C1EF}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.08203125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="60.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>